--- a/data/pca/factorExposure/factorExposure_2016-04-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01164957760274185</v>
+        <v>0.01576962760534313</v>
       </c>
       <c r="C2">
-        <v>0.05244291354377399</v>
+        <v>0.03823343892798196</v>
       </c>
       <c r="D2">
-        <v>0.04126222122156844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06282752598576812</v>
+      </c>
+      <c r="E2">
+        <v>-0.09474709572324255</v>
+      </c>
+      <c r="F2">
+        <v>-0.08392474690352551</v>
+      </c>
+      <c r="G2">
+        <v>-0.02764793315623723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04110573725464507</v>
+        <v>0.02525647238757551</v>
       </c>
       <c r="C3">
-        <v>0.1218132703725388</v>
+        <v>0.06707737721012552</v>
       </c>
       <c r="D3">
-        <v>0.08351234817194314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07320089401350172</v>
+      </c>
+      <c r="E3">
+        <v>-0.06893056798522744</v>
+      </c>
+      <c r="F3">
+        <v>0.02067997128206023</v>
+      </c>
+      <c r="G3">
+        <v>-0.04508497347397615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06358236962681411</v>
+        <v>0.06075642550469491</v>
       </c>
       <c r="C4">
-        <v>0.06141968023768292</v>
+        <v>0.06353672316718542</v>
       </c>
       <c r="D4">
-        <v>0.02829044854007857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05497577542333761</v>
+      </c>
+      <c r="E4">
+        <v>-0.08906004157536022</v>
+      </c>
+      <c r="F4">
+        <v>-0.04763176398480835</v>
+      </c>
+      <c r="G4">
+        <v>-0.08730798036276857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04076502576985553</v>
+        <v>0.03696690142575787</v>
       </c>
       <c r="C6">
-        <v>0.03471454394231771</v>
+        <v>0.02598303266031685</v>
       </c>
       <c r="D6">
-        <v>0.02895919701589217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06173610940582579</v>
+      </c>
+      <c r="E6">
+        <v>-0.08973206880982851</v>
+      </c>
+      <c r="F6">
+        <v>-0.02846496879707485</v>
+      </c>
+      <c r="G6">
+        <v>-0.0654898718833353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02700791245266951</v>
+        <v>0.0211089252451399</v>
       </c>
       <c r="C7">
-        <v>0.03973063918753372</v>
+        <v>0.03531668383612101</v>
       </c>
       <c r="D7">
-        <v>-0.006819333863089912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03878145324304112</v>
+      </c>
+      <c r="E7">
+        <v>-0.06887277924392157</v>
+      </c>
+      <c r="F7">
+        <v>-0.06914403029216533</v>
+      </c>
+      <c r="G7">
+        <v>-0.09985136350377694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007621703300179149</v>
+        <v>0.005834035434917541</v>
       </c>
       <c r="C8">
-        <v>0.04158872633880883</v>
+        <v>0.03446594635810833</v>
       </c>
       <c r="D8">
-        <v>0.02574189432871461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03475792455989482</v>
+      </c>
+      <c r="E8">
+        <v>-0.06236651905092933</v>
+      </c>
+      <c r="F8">
+        <v>-0.02040730062563184</v>
+      </c>
+      <c r="G8">
+        <v>-0.03673451063078901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03803878461566258</v>
+        <v>0.0402117161931145</v>
       </c>
       <c r="C9">
-        <v>0.04806505913906189</v>
+        <v>0.05079422317719368</v>
       </c>
       <c r="D9">
-        <v>0.01320191914058379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04045334994112278</v>
+      </c>
+      <c r="E9">
+        <v>-0.07137021437814907</v>
+      </c>
+      <c r="F9">
+        <v>-0.05961621511844713</v>
+      </c>
+      <c r="G9">
+        <v>-0.08016644186869165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07211596703055624</v>
+        <v>0.09827594944719782</v>
       </c>
       <c r="C10">
-        <v>-0.1908843586244652</v>
+        <v>-0.2012908321858283</v>
       </c>
       <c r="D10">
-        <v>-0.00464982546507894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01136976546754003</v>
+      </c>
+      <c r="E10">
+        <v>-0.03229954748613631</v>
+      </c>
+      <c r="F10">
+        <v>-0.01801379316451866</v>
+      </c>
+      <c r="G10">
+        <v>-0.03643737654090231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04281303442490998</v>
+        <v>0.03781919539776663</v>
       </c>
       <c r="C11">
-        <v>0.0506567298505237</v>
+        <v>0.04737225218730931</v>
       </c>
       <c r="D11">
-        <v>0.01310170642259685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03169338997666534</v>
+      </c>
+      <c r="E11">
+        <v>-0.02894530931794901</v>
+      </c>
+      <c r="F11">
+        <v>-0.04158038589698064</v>
+      </c>
+      <c r="G11">
+        <v>-0.06749287374111869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04534937877815626</v>
+        <v>0.03986138618944746</v>
       </c>
       <c r="C12">
-        <v>0.04611206641111529</v>
+        <v>0.04545065431975394</v>
       </c>
       <c r="D12">
-        <v>0.001937361039954713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02698548540179443</v>
+      </c>
+      <c r="E12">
+        <v>-0.03580622505487688</v>
+      </c>
+      <c r="F12">
+        <v>-0.04303379149908453</v>
+      </c>
+      <c r="G12">
+        <v>-0.06550442463413023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01618167966439868</v>
+        <v>0.01376077617694216</v>
       </c>
       <c r="C13">
-        <v>0.05355372304167952</v>
+        <v>0.04217590498794796</v>
       </c>
       <c r="D13">
-        <v>0.008885784679493034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04718235770889525</v>
+      </c>
+      <c r="E13">
+        <v>-0.1018768452143511</v>
+      </c>
+      <c r="F13">
+        <v>-0.06268683199745603</v>
+      </c>
+      <c r="G13">
+        <v>-0.09365270844348336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01047285986447292</v>
+        <v>0.006883433809587079</v>
       </c>
       <c r="C14">
-        <v>0.03778313371630947</v>
+        <v>0.03077392613984348</v>
       </c>
       <c r="D14">
-        <v>-0.007893699499547607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02616225779164244</v>
+      </c>
+      <c r="E14">
+        <v>-0.05159161752773845</v>
+      </c>
+      <c r="F14">
+        <v>-0.0794733266086283</v>
+      </c>
+      <c r="G14">
+        <v>-0.08301103115229119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6.559341246660321e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005273068376533655</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00831206892494241</v>
+      </c>
+      <c r="E15">
+        <v>-0.00473760251150109</v>
+      </c>
+      <c r="F15">
+        <v>-0.006714219222221846</v>
+      </c>
+      <c r="G15">
+        <v>-0.007368175213573474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04067395155501554</v>
+        <v>0.03597307521679036</v>
       </c>
       <c r="C16">
-        <v>0.04762643908314326</v>
+        <v>0.04407902268887214</v>
       </c>
       <c r="D16">
-        <v>0.00465545120257356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02595801865246256</v>
+      </c>
+      <c r="E16">
+        <v>-0.04181838851345513</v>
+      </c>
+      <c r="F16">
+        <v>-0.05338217587782868</v>
+      </c>
+      <c r="G16">
+        <v>-0.05545684883916036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02776806848221381</v>
+        <v>0.01925341306009204</v>
       </c>
       <c r="C19">
-        <v>0.05900328327449346</v>
+        <v>0.04397959964431711</v>
       </c>
       <c r="D19">
-        <v>0.09093295889793601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09341161985923821</v>
+      </c>
+      <c r="E19">
+        <v>-0.1123042197401447</v>
+      </c>
+      <c r="F19">
+        <v>-0.06044267892018244</v>
+      </c>
+      <c r="G19">
+        <v>-0.0407410499075133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01938259942718629</v>
+        <v>0.01543291249398809</v>
       </c>
       <c r="C20">
-        <v>0.04856276655116667</v>
+        <v>0.03945718150373669</v>
       </c>
       <c r="D20">
-        <v>0.009307867840340345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03500821767043207</v>
+      </c>
+      <c r="E20">
+        <v>-0.0801971748790859</v>
+      </c>
+      <c r="F20">
+        <v>-0.05613377607355515</v>
+      </c>
+      <c r="G20">
+        <v>-0.06593295439793607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0131159655112971</v>
+        <v>0.01134217642448339</v>
       </c>
       <c r="C21">
-        <v>0.05380274062527361</v>
+        <v>0.04377669885839194</v>
       </c>
       <c r="D21">
-        <v>0.02920133221795985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05784226630559251</v>
+      </c>
+      <c r="E21">
+        <v>-0.1281960000006073</v>
+      </c>
+      <c r="F21">
+        <v>-0.09101478464981326</v>
+      </c>
+      <c r="G21">
+        <v>-0.09410347170136177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.00170325401941445</v>
+        <v>0.004010304569193675</v>
       </c>
       <c r="C22">
-        <v>0.001582177698837656</v>
+        <v>0.0287544604897957</v>
       </c>
       <c r="D22">
-        <v>0.006217558091719169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04947166555419184</v>
+      </c>
+      <c r="E22">
+        <v>-0.05587397972755936</v>
+      </c>
+      <c r="F22">
+        <v>0.01964993993296807</v>
+      </c>
+      <c r="G22">
+        <v>-0.06168871151773404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001709119515012828</v>
+        <v>0.004095189756399012</v>
       </c>
       <c r="C23">
-        <v>0.001601521121175679</v>
+        <v>0.02889645892099318</v>
       </c>
       <c r="D23">
-        <v>0.006207431206034277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04902193906955294</v>
+      </c>
+      <c r="E23">
+        <v>-0.05613260870837761</v>
+      </c>
+      <c r="F23">
+        <v>0.01995332469141136</v>
+      </c>
+      <c r="G23">
+        <v>-0.06165835822252818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03721712360700449</v>
+        <v>0.03616329722114408</v>
       </c>
       <c r="C24">
-        <v>0.04992761845901208</v>
+        <v>0.05222895199000249</v>
       </c>
       <c r="D24">
-        <v>0.006335290148901485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02489392191481133</v>
+      </c>
+      <c r="E24">
+        <v>-0.04346597301146318</v>
+      </c>
+      <c r="F24">
+        <v>-0.05633714821349162</v>
+      </c>
+      <c r="G24">
+        <v>-0.06784599070872877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04914994705757591</v>
+        <v>0.04410951667034541</v>
       </c>
       <c r="C25">
-        <v>0.06035687154033715</v>
+        <v>0.05587514079754377</v>
       </c>
       <c r="D25">
-        <v>-0.004257451483596206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02323457966290936</v>
+      </c>
+      <c r="E25">
+        <v>-0.03654374830781645</v>
+      </c>
+      <c r="F25">
+        <v>-0.04556225673595651</v>
+      </c>
+      <c r="G25">
+        <v>-0.07850509981310566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01800669744644823</v>
+        <v>0.01674092526896725</v>
       </c>
       <c r="C26">
-        <v>0.01799276656671585</v>
+        <v>0.01697285426145004</v>
       </c>
       <c r="D26">
-        <v>0.001748424321744644</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02614715695145036</v>
+      </c>
+      <c r="E26">
+        <v>-0.05253741609702645</v>
+      </c>
+      <c r="F26">
+        <v>-0.06014021178853147</v>
+      </c>
+      <c r="G26">
+        <v>-0.0487691556950405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08581229895396052</v>
+        <v>0.1340587474733727</v>
       </c>
       <c r="C28">
-        <v>-0.2502157519423566</v>
+        <v>-0.256173419625973</v>
       </c>
       <c r="D28">
-        <v>-0.004709248013239566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02654932230457809</v>
+      </c>
+      <c r="E28">
+        <v>-0.05901964001304821</v>
+      </c>
+      <c r="F28">
+        <v>-0.03572978003767423</v>
+      </c>
+      <c r="G28">
+        <v>-0.05360618281062311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008142482307118063</v>
+        <v>0.006709136342445779</v>
       </c>
       <c r="C29">
-        <v>0.0331109150498581</v>
+        <v>0.02870676704101668</v>
       </c>
       <c r="D29">
-        <v>-0.01442034316789757</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01752672083454946</v>
+      </c>
+      <c r="E29">
+        <v>-0.05167529989087278</v>
+      </c>
+      <c r="F29">
+        <v>-0.07159789575180289</v>
+      </c>
+      <c r="G29">
+        <v>-0.08597015467103264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04781076322432205</v>
+        <v>0.04433180406411128</v>
       </c>
       <c r="C30">
-        <v>0.05255334097812903</v>
+        <v>0.05670466627188613</v>
       </c>
       <c r="D30">
-        <v>0.07911469366885211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1033969209029351</v>
+      </c>
+      <c r="E30">
+        <v>-0.07908910551801189</v>
+      </c>
+      <c r="F30">
+        <v>-0.06738122236088208</v>
+      </c>
+      <c r="G30">
+        <v>-0.06593326367463914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06112466730793498</v>
+        <v>0.0590340025841421</v>
       </c>
       <c r="C31">
-        <v>0.04528448032501102</v>
+        <v>0.06133259822373127</v>
       </c>
       <c r="D31">
-        <v>-0.04326824791695935</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01732871018924848</v>
+      </c>
+      <c r="E31">
+        <v>-0.07147594835226935</v>
+      </c>
+      <c r="F31">
+        <v>-0.02470304376684563</v>
+      </c>
+      <c r="G31">
+        <v>-0.08243920265804409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001801205883919919</v>
+        <v>0.006168997173786568</v>
       </c>
       <c r="C32">
-        <v>0.04278794956668763</v>
+        <v>0.03546041624723946</v>
       </c>
       <c r="D32">
-        <v>0.05802932530224523</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05788323279361662</v>
+      </c>
+      <c r="E32">
+        <v>-0.0620406985381617</v>
+      </c>
+      <c r="F32">
+        <v>-0.06570345696191031</v>
+      </c>
+      <c r="G32">
+        <v>-0.06768651496340464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03527974906169165</v>
+        <v>0.02879482501039561</v>
       </c>
       <c r="C33">
-        <v>0.05567191430256968</v>
+        <v>0.05116722735338811</v>
       </c>
       <c r="D33">
-        <v>0.03929402102814015</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07237297712554158</v>
+      </c>
+      <c r="E33">
+        <v>-0.09078781892432566</v>
+      </c>
+      <c r="F33">
+        <v>-0.06893061577767223</v>
+      </c>
+      <c r="G33">
+        <v>-0.09772977403320643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.046200664093944</v>
+        <v>0.04156525455428124</v>
       </c>
       <c r="C34">
-        <v>0.06455514675449268</v>
+        <v>0.06261598965380734</v>
       </c>
       <c r="D34">
-        <v>0.01898257223665972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03790943100648085</v>
+      </c>
+      <c r="E34">
+        <v>-0.01831907321774605</v>
+      </c>
+      <c r="F34">
+        <v>-0.0553675775098602</v>
+      </c>
+      <c r="G34">
+        <v>-0.06970004201388848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01778300426228955</v>
+        <v>0.0150300334487484</v>
       </c>
       <c r="C36">
-        <v>0.01675968378759409</v>
+        <v>0.0137057431968307</v>
       </c>
       <c r="D36">
-        <v>-0.003702403839166772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02467849936587107</v>
+      </c>
+      <c r="E36">
+        <v>-0.06198185530292825</v>
+      </c>
+      <c r="F36">
+        <v>-0.05119781802930108</v>
+      </c>
+      <c r="G36">
+        <v>-0.06539073679041707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03096236142629558</v>
+        <v>0.02415342082430127</v>
       </c>
       <c r="C38">
-        <v>0.03195803870012766</v>
+        <v>0.02407733875082134</v>
       </c>
       <c r="D38">
-        <v>-0.01383243909264646</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0216829143279626</v>
+      </c>
+      <c r="E38">
+        <v>-0.05066344965240706</v>
+      </c>
+      <c r="F38">
+        <v>-0.04132085148524368</v>
+      </c>
+      <c r="G38">
+        <v>-0.04534387352909413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04835726156359244</v>
+        <v>0.04214864514368964</v>
       </c>
       <c r="C39">
-        <v>0.06150816205656129</v>
+        <v>0.06229826835024825</v>
       </c>
       <c r="D39">
-        <v>0.01983729894786671</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05168002348384509</v>
+      </c>
+      <c r="E39">
+        <v>-0.04989569574651162</v>
+      </c>
+      <c r="F39">
+        <v>-0.07483778681610753</v>
+      </c>
+      <c r="G39">
+        <v>-0.06203058790719072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01147651527148352</v>
+        <v>0.01408425265037722</v>
       </c>
       <c r="C40">
-        <v>0.05501992818487465</v>
+        <v>0.03922883920829184</v>
       </c>
       <c r="D40">
-        <v>0.01697111647031462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03249081444108366</v>
+      </c>
+      <c r="E40">
+        <v>-0.0916118884784199</v>
+      </c>
+      <c r="F40">
+        <v>-0.03696960867382946</v>
+      </c>
+      <c r="G40">
+        <v>-0.1007364468806299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02311032766289232</v>
+        <v>0.01977861723130832</v>
       </c>
       <c r="C41">
-        <v>0.01311943954509778</v>
+        <v>0.00927929407322773</v>
       </c>
       <c r="D41">
-        <v>0.0009279893444184431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01613209616344029</v>
+      </c>
+      <c r="E41">
+        <v>-0.06287226380747621</v>
+      </c>
+      <c r="F41">
+        <v>-0.04581561975173178</v>
+      </c>
+      <c r="G41">
+        <v>-0.05237685565354826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04426671595910458</v>
+        <v>0.03155061080144817</v>
       </c>
       <c r="C43">
-        <v>0.03359025057064197</v>
+        <v>0.02479493752508433</v>
       </c>
       <c r="D43">
-        <v>0.02118609623533024</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04471233926318892</v>
+      </c>
+      <c r="E43">
+        <v>-0.07818502042012271</v>
+      </c>
+      <c r="F43">
+        <v>-0.03986819327542256</v>
+      </c>
+      <c r="G43">
+        <v>-0.07947777365181045</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01604747099202584</v>
+        <v>0.01753131848934943</v>
       </c>
       <c r="C44">
-        <v>0.06947662935582928</v>
+        <v>0.04736797404213712</v>
       </c>
       <c r="D44">
-        <v>0.007659636982883334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03354310321726771</v>
+      </c>
+      <c r="E44">
+        <v>-0.09041834978213124</v>
+      </c>
+      <c r="F44">
+        <v>-0.06522272686065438</v>
+      </c>
+      <c r="G44">
+        <v>-0.04979298089046758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01156174630070141</v>
+        <v>0.01224230181849084</v>
       </c>
       <c r="C46">
-        <v>0.02624746369134499</v>
+        <v>0.0281609993059822</v>
       </c>
       <c r="D46">
-        <v>-0.01586382606184873</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01329144693374662</v>
+      </c>
+      <c r="E46">
+        <v>-0.06141614052609732</v>
+      </c>
+      <c r="F46">
+        <v>-0.08147697320519136</v>
+      </c>
+      <c r="G46">
+        <v>-0.08512680350441718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09026058768945512</v>
+        <v>0.09275279944070003</v>
       </c>
       <c r="C47">
-        <v>0.06758849438819223</v>
+        <v>0.07914160547656221</v>
       </c>
       <c r="D47">
-        <v>-0.04327030788773371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02300475478600053</v>
+      </c>
+      <c r="E47">
+        <v>-0.06685757889456333</v>
+      </c>
+      <c r="F47">
+        <v>-0.02481646938668203</v>
+      </c>
+      <c r="G47">
+        <v>-0.07812315696301297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0200345057239948</v>
+        <v>0.01819413004875984</v>
       </c>
       <c r="C48">
-        <v>0.01400427598999651</v>
+        <v>0.01588500165053426</v>
       </c>
       <c r="D48">
-        <v>-0.01677310608484735</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01206851667699716</v>
+      </c>
+      <c r="E48">
+        <v>-0.07320088702602615</v>
+      </c>
+      <c r="F48">
+        <v>-0.06377802173905514</v>
+      </c>
+      <c r="G48">
+        <v>-0.0725955715815338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08525547877123675</v>
+        <v>0.07258421496064457</v>
       </c>
       <c r="C50">
-        <v>0.08118254639631198</v>
+        <v>0.07466666623034819</v>
       </c>
       <c r="D50">
-        <v>-0.04351062063584844</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.008014773552976228</v>
+      </c>
+      <c r="E50">
+        <v>-0.07774512079903312</v>
+      </c>
+      <c r="F50">
+        <v>0.002007447851271284</v>
+      </c>
+      <c r="G50">
+        <v>-0.09196001051329102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01813952391780466</v>
+        <v>0.01157819160069636</v>
       </c>
       <c r="C51">
-        <v>0.05083621970718956</v>
+        <v>0.03232679430193791</v>
       </c>
       <c r="D51">
-        <v>0.03980702622297351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05671498518494313</v>
+      </c>
+      <c r="E51">
+        <v>-0.05232617805204179</v>
+      </c>
+      <c r="F51">
+        <v>-0.07065650359009959</v>
+      </c>
+      <c r="G51">
+        <v>-0.05952434622530101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0848268328437535</v>
+        <v>0.09760221214734248</v>
       </c>
       <c r="C53">
-        <v>0.07757522485760837</v>
+        <v>0.08548292448435266</v>
       </c>
       <c r="D53">
-        <v>-0.06659424735411533</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06158832962481997</v>
+      </c>
+      <c r="E53">
+        <v>-0.06753182342096124</v>
+      </c>
+      <c r="F53">
+        <v>-0.02426857151671757</v>
+      </c>
+      <c r="G53">
+        <v>-0.06902432321469663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03767923722747517</v>
+        <v>0.03068643755739681</v>
       </c>
       <c r="C54">
-        <v>0.03304026111521774</v>
+        <v>0.03053494400058386</v>
       </c>
       <c r="D54">
-        <v>-0.005287352732779096</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02531359729486441</v>
+      </c>
+      <c r="E54">
+        <v>-0.0575657579845748</v>
+      </c>
+      <c r="F54">
+        <v>-0.07066404812179154</v>
+      </c>
+      <c r="G54">
+        <v>-0.08787151306527979</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08002396611340323</v>
+        <v>0.09008741165089564</v>
       </c>
       <c r="C55">
-        <v>0.05330389769258842</v>
+        <v>0.06737957531523373</v>
       </c>
       <c r="D55">
-        <v>-0.07129140981594177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06165097236834392</v>
+      </c>
+      <c r="E55">
+        <v>-0.04450011049934916</v>
+      </c>
+      <c r="F55">
+        <v>-0.003484957760520346</v>
+      </c>
+      <c r="G55">
+        <v>-0.05342751248057206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1545868798876194</v>
+        <v>0.1563608842028703</v>
       </c>
       <c r="C56">
-        <v>0.0825711203542583</v>
+        <v>0.1004893022378024</v>
       </c>
       <c r="D56">
-        <v>-0.06072335862587771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05521805452191341</v>
+      </c>
+      <c r="E56">
+        <v>-0.03847581833478318</v>
+      </c>
+      <c r="F56">
+        <v>0.01740183408098988</v>
+      </c>
+      <c r="G56">
+        <v>-0.02212780638324189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05133421023936469</v>
+        <v>0.03148338986224222</v>
       </c>
       <c r="C58">
-        <v>0.01883496470309391</v>
+        <v>0.02092267809543257</v>
       </c>
       <c r="D58">
-        <v>0.5773296094188262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.382345677764647</v>
+      </c>
+      <c r="E58">
+        <v>-0.6176854872086709</v>
+      </c>
+      <c r="F58">
+        <v>0.4192931192490071</v>
+      </c>
+      <c r="G58">
+        <v>0.4625410117973042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1227923003432164</v>
+        <v>0.1385769604240404</v>
       </c>
       <c r="C59">
-        <v>-0.2032020892709449</v>
+        <v>-0.1918625747581319</v>
       </c>
       <c r="D59">
-        <v>0.02760640221888961</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02954579133865454</v>
+      </c>
+      <c r="E59">
+        <v>-0.03229537808276758</v>
+      </c>
+      <c r="F59">
+        <v>-0.03186669929055881</v>
+      </c>
+      <c r="G59">
+        <v>0.00748213997460999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3062267143452757</v>
+        <v>0.2757007293345036</v>
       </c>
       <c r="C60">
-        <v>0.1110821065537712</v>
+        <v>0.1066720640928265</v>
       </c>
       <c r="D60">
-        <v>0.1861122819153187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2548264425291447</v>
+      </c>
+      <c r="E60">
+        <v>0.243829648456677</v>
+      </c>
+      <c r="F60">
+        <v>0.09525904034084225</v>
+      </c>
+      <c r="G60">
+        <v>-0.04374987680953154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.047642879097683</v>
+        <v>0.04383795287009743</v>
       </c>
       <c r="C61">
-        <v>0.06027989454466957</v>
+        <v>0.05784002617087075</v>
       </c>
       <c r="D61">
-        <v>0.01439169363252711</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04299929420821423</v>
+      </c>
+      <c r="E61">
+        <v>-0.05128488061378517</v>
+      </c>
+      <c r="F61">
+        <v>-0.05740846419635406</v>
+      </c>
+      <c r="G61">
+        <v>-0.07658141799581922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01989190300060203</v>
+        <v>0.01784143187137077</v>
       </c>
       <c r="C63">
-        <v>0.03343921646477791</v>
+        <v>0.03061213858680152</v>
       </c>
       <c r="D63">
-        <v>-0.02222138200668624</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01705202278566667</v>
+      </c>
+      <c r="E63">
+        <v>-0.06368383287510151</v>
+      </c>
+      <c r="F63">
+        <v>-0.03557235847934424</v>
+      </c>
+      <c r="G63">
+        <v>-0.07697415535543028</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05111608421069643</v>
+        <v>0.05742528528403957</v>
       </c>
       <c r="C64">
-        <v>0.04683800301552426</v>
+        <v>0.0579157611411525</v>
       </c>
       <c r="D64">
-        <v>0.0145404276407834</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008813953118880551</v>
+      </c>
+      <c r="E64">
+        <v>-0.04525102744222829</v>
+      </c>
+      <c r="F64">
+        <v>-0.05420663891206785</v>
+      </c>
+      <c r="G64">
+        <v>-0.0535110036579939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07917908822858956</v>
+        <v>0.06451823421265132</v>
       </c>
       <c r="C65">
-        <v>0.02529235468228389</v>
+        <v>0.02546915615905811</v>
       </c>
       <c r="D65">
-        <v>0.05947475865174798</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08764556898048365</v>
+      </c>
+      <c r="E65">
+        <v>-0.05755610238077106</v>
+      </c>
+      <c r="F65">
+        <v>-0.006609870560478806</v>
+      </c>
+      <c r="G65">
+        <v>-0.02231204108269884</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0638716546517064</v>
+        <v>0.05463246679592566</v>
       </c>
       <c r="C66">
-        <v>0.08523264051756442</v>
+        <v>0.08017034040184738</v>
       </c>
       <c r="D66">
-        <v>0.03980834781962994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07655355411161763</v>
+      </c>
+      <c r="E66">
+        <v>-0.06140784356943136</v>
+      </c>
+      <c r="F66">
+        <v>-0.06551328289510379</v>
+      </c>
+      <c r="G66">
+        <v>-0.07552270526537506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05211880538369883</v>
+        <v>0.0451800582373936</v>
       </c>
       <c r="C67">
-        <v>0.03115268788174826</v>
+        <v>0.02836115809221568</v>
       </c>
       <c r="D67">
-        <v>-0.02261256620561505</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004523954649767786</v>
+      </c>
+      <c r="E67">
+        <v>-0.02684537322799342</v>
+      </c>
+      <c r="F67">
+        <v>-0.02736933693727322</v>
+      </c>
+      <c r="G67">
+        <v>-0.03638245440367629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1216851730860739</v>
+        <v>0.1460180642792395</v>
       </c>
       <c r="C68">
-        <v>-0.2812671127999184</v>
+        <v>-0.2450720976973754</v>
       </c>
       <c r="D68">
-        <v>-0.007115839566789618</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01459112369512839</v>
+      </c>
+      <c r="E68">
+        <v>-0.04139764023783994</v>
+      </c>
+      <c r="F68">
+        <v>-0.00971173384565896</v>
+      </c>
+      <c r="G68">
+        <v>-0.02959140699460118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09364612258936929</v>
+        <v>0.08847923342344903</v>
       </c>
       <c r="C69">
-        <v>0.07098510328732147</v>
+        <v>0.08990791142343876</v>
       </c>
       <c r="D69">
-        <v>-0.05307862794962407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0154454159990613</v>
+      </c>
+      <c r="E69">
+        <v>-0.05839486608404783</v>
+      </c>
+      <c r="F69">
+        <v>-0.05441964549385184</v>
+      </c>
+      <c r="G69">
+        <v>-0.07534272583613176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.112551252653038</v>
+        <v>0.1403270447190464</v>
       </c>
       <c r="C71">
-        <v>-0.2588522535847705</v>
+        <v>-0.2441148947659684</v>
       </c>
       <c r="D71">
-        <v>0.01116680144739292</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002163049763652203</v>
+      </c>
+      <c r="E71">
+        <v>-0.05587465531469803</v>
+      </c>
+      <c r="F71">
+        <v>-0.01073979618350023</v>
+      </c>
+      <c r="G71">
+        <v>-0.06523310269990201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09719176323499017</v>
+        <v>0.1042111195746992</v>
       </c>
       <c r="C72">
-        <v>0.04139534412536277</v>
+        <v>0.04928157228822631</v>
       </c>
       <c r="D72">
-        <v>0.005191138898670196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03416889805986898</v>
+      </c>
+      <c r="E72">
+        <v>-0.02043438825689792</v>
+      </c>
+      <c r="F72">
+        <v>-0.03284619421041958</v>
+      </c>
+      <c r="G72">
+        <v>-0.09152995428291814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3925231397231777</v>
+        <v>0.3318031921028544</v>
       </c>
       <c r="C73">
-        <v>0.04989057966221951</v>
+        <v>0.07031074972052841</v>
       </c>
       <c r="D73">
-        <v>0.4497459148587701</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5048129776451022</v>
+      </c>
+      <c r="E73">
+        <v>0.4577781167833521</v>
+      </c>
+      <c r="F73">
+        <v>0.2360576216050385</v>
+      </c>
+      <c r="G73">
+        <v>-0.01450922587395952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1088292852240709</v>
+        <v>0.1130331738769602</v>
       </c>
       <c r="C74">
-        <v>0.09175194231221984</v>
+        <v>0.09161095138338252</v>
       </c>
       <c r="D74">
-        <v>-0.04791812618938858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04708033912978864</v>
+      </c>
+      <c r="E74">
+        <v>-0.05783621972700732</v>
+      </c>
+      <c r="F74">
+        <v>0.008032810266300382</v>
+      </c>
+      <c r="G74">
+        <v>-0.04644329762127632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2584791290109775</v>
+        <v>0.2619721245911434</v>
       </c>
       <c r="C75">
-        <v>0.08963865413192157</v>
+        <v>0.1217299668557736</v>
       </c>
       <c r="D75">
-        <v>-0.1390105980804598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1506330192221897</v>
+      </c>
+      <c r="E75">
+        <v>-0.02952425241091657</v>
+      </c>
+      <c r="F75">
+        <v>0.06268335404162602</v>
+      </c>
+      <c r="G75">
+        <v>0.05125467687774411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1165083024776944</v>
+        <v>0.1301819557807057</v>
       </c>
       <c r="C76">
-        <v>0.07942564458291894</v>
+        <v>0.09077048977259992</v>
       </c>
       <c r="D76">
-        <v>-0.07832989085169519</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08242419416807661</v>
+      </c>
+      <c r="E76">
+        <v>-0.07348664358461232</v>
+      </c>
+      <c r="F76">
+        <v>-0.0126764539495836</v>
+      </c>
+      <c r="G76">
+        <v>-0.03554109247392871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08261491475982911</v>
+        <v>0.06786196208349246</v>
       </c>
       <c r="C77">
-        <v>0.0439197860022013</v>
+        <v>0.05782058017568727</v>
       </c>
       <c r="D77">
-        <v>0.0528953519098255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05909860036467792</v>
+      </c>
+      <c r="E77">
+        <v>-0.09741113100027167</v>
+      </c>
+      <c r="F77">
+        <v>-0.1770403146074179</v>
+      </c>
+      <c r="G77">
+        <v>0.09621720918457682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05001367606404463</v>
+        <v>0.04800086947238667</v>
       </c>
       <c r="C78">
-        <v>0.04100314777462461</v>
+        <v>0.0525298157868363</v>
       </c>
       <c r="D78">
-        <v>0.03176964194043589</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0642428571495033</v>
+      </c>
+      <c r="E78">
+        <v>-0.06165087534318666</v>
+      </c>
+      <c r="F78">
+        <v>-0.06053081654763166</v>
+      </c>
+      <c r="G78">
+        <v>-0.06367183901315919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001774297972108051</v>
+        <v>0.03302765764509762</v>
       </c>
       <c r="C79">
-        <v>0.0007710577111520509</v>
+        <v>0.04728004344111929</v>
       </c>
       <c r="D79">
-        <v>0.001451276837323302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08293311537207444</v>
+      </c>
+      <c r="E79">
+        <v>-0.06691177355320747</v>
+      </c>
+      <c r="F79">
+        <v>0.02104295042653677</v>
+      </c>
+      <c r="G79">
+        <v>-0.02987736323011926</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03954788963063673</v>
+        <v>0.03039067974796892</v>
       </c>
       <c r="C80">
-        <v>0.04961945714099592</v>
+        <v>0.05014225626781591</v>
       </c>
       <c r="D80">
-        <v>0.02945383608127565</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03977779729396941</v>
+      </c>
+      <c r="E80">
+        <v>-0.01573452273328592</v>
+      </c>
+      <c r="F80">
+        <v>-0.05629612719049907</v>
+      </c>
+      <c r="G80">
+        <v>-0.001921865743583361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1428082334411189</v>
+        <v>0.1423274606829412</v>
       </c>
       <c r="C81">
-        <v>0.07208224955312721</v>
+        <v>0.09139064360191218</v>
       </c>
       <c r="D81">
-        <v>-0.1129047097667628</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1269327783741621</v>
+      </c>
+      <c r="E81">
+        <v>-0.07166406692047018</v>
+      </c>
+      <c r="F81">
+        <v>0.02691909568911273</v>
+      </c>
+      <c r="G81">
+        <v>0.0130178465411873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1917949692813037</v>
+        <v>0.2265176196740034</v>
       </c>
       <c r="C82">
-        <v>0.08523667632247814</v>
+        <v>0.1490825132573256</v>
       </c>
       <c r="D82">
-        <v>-0.1978393249498029</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2516812098547897</v>
+      </c>
+      <c r="E82">
+        <v>0.03616194686768239</v>
+      </c>
+      <c r="F82">
+        <v>-0.04421078268951865</v>
+      </c>
+      <c r="G82">
+        <v>-0.05313541868760781</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04228169259624068</v>
+        <v>0.02822710189230928</v>
       </c>
       <c r="C83">
-        <v>0.03089592370609435</v>
+        <v>0.04443281019210953</v>
       </c>
       <c r="D83">
-        <v>0.03811763203613817</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03239662500510573</v>
+      </c>
+      <c r="E83">
+        <v>-0.02463460535905145</v>
+      </c>
+      <c r="F83">
+        <v>-0.03198402483534643</v>
+      </c>
+      <c r="G83">
+        <v>-0.003927678400202717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001824471088787462</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0004409521197360329</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0004076351776125818</v>
+      </c>
+      <c r="E84">
+        <v>-0.002708711383134095</v>
+      </c>
+      <c r="F84">
+        <v>0.001601496159577705</v>
+      </c>
+      <c r="G84">
+        <v>-0.001045964588131077</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2202150217652144</v>
+        <v>0.2035374331728574</v>
       </c>
       <c r="C85">
-        <v>0.09015664249478904</v>
+        <v>0.1090652053648119</v>
       </c>
       <c r="D85">
-        <v>-0.168771243450707</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.132466032797048</v>
+      </c>
+      <c r="E85">
+        <v>0.006088556315201489</v>
+      </c>
+      <c r="F85">
+        <v>0.1035397297619591</v>
+      </c>
+      <c r="G85">
+        <v>0.001722934042302424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01027149864194237</v>
+        <v>0.01283600271800837</v>
       </c>
       <c r="C86">
-        <v>0.02925027625650101</v>
+        <v>0.01855061344593589</v>
       </c>
       <c r="D86">
-        <v>0.04243659126925049</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06371151825871522</v>
+      </c>
+      <c r="E86">
+        <v>-0.07966585194122029</v>
+      </c>
+      <c r="F86">
+        <v>-0.08247445723851858</v>
+      </c>
+      <c r="G86">
+        <v>-0.07450556076404481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02700185305855331</v>
+        <v>0.02706904939782401</v>
       </c>
       <c r="C87">
-        <v>0.006596705486144862</v>
+        <v>0.01354385417934831</v>
       </c>
       <c r="D87">
-        <v>0.08578233844177446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08641350691076899</v>
+      </c>
+      <c r="E87">
+        <v>-0.1278520376261065</v>
+      </c>
+      <c r="F87">
+        <v>-0.07779554876963683</v>
+      </c>
+      <c r="G87">
+        <v>-0.005540743374513318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1111374788130878</v>
+        <v>0.0942046459566621</v>
       </c>
       <c r="C88">
-        <v>0.07460544243424887</v>
+        <v>0.06334112512379046</v>
       </c>
       <c r="D88">
-        <v>-0.02344866674219779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01002911487329365</v>
+      </c>
+      <c r="E88">
+        <v>-0.05206216595870645</v>
+      </c>
+      <c r="F88">
+        <v>-0.04829134569544238</v>
+      </c>
+      <c r="G88">
+        <v>-0.03735186473742713</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1751356986058027</v>
+        <v>0.2123343422667907</v>
       </c>
       <c r="C89">
-        <v>-0.3844352518371625</v>
+        <v>-0.3861932588530431</v>
       </c>
       <c r="D89">
-        <v>-0.02414904474541584</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01352587392703098</v>
+      </c>
+      <c r="E89">
+        <v>-0.06984562210262561</v>
+      </c>
+      <c r="F89">
+        <v>-0.09079181154675818</v>
+      </c>
+      <c r="G89">
+        <v>0.002300930472091761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1695478045228511</v>
+        <v>0.1935892403783301</v>
       </c>
       <c r="C90">
-        <v>-0.3362394714086833</v>
+        <v>-0.3129398544287882</v>
       </c>
       <c r="D90">
-        <v>-0.03717910589053814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01996564605940373</v>
+      </c>
+      <c r="E90">
+        <v>-0.05708423908088185</v>
+      </c>
+      <c r="F90">
+        <v>-0.02919994215247309</v>
+      </c>
+      <c r="G90">
+        <v>-0.01365156564224868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1901546046777652</v>
+        <v>0.1878266169375257</v>
       </c>
       <c r="C91">
-        <v>0.1232372037679194</v>
+        <v>0.1392601260380727</v>
       </c>
       <c r="D91">
-        <v>-0.1358206889121824</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1320496367507646</v>
+      </c>
+      <c r="E91">
+        <v>-0.04964233486292053</v>
+      </c>
+      <c r="F91">
+        <v>0.0177158634599743</v>
+      </c>
+      <c r="G91">
+        <v>0.003581769448097763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1584163796664917</v>
+        <v>0.1780113740316094</v>
       </c>
       <c r="C92">
-        <v>-0.2956709029964953</v>
+        <v>-0.2980475779505448</v>
       </c>
       <c r="D92">
-        <v>-0.01532535051123552</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01301851756599376</v>
+      </c>
+      <c r="E92">
+        <v>-0.06039505545363648</v>
+      </c>
+      <c r="F92">
+        <v>-0.05635832253551173</v>
+      </c>
+      <c r="G92">
+        <v>-0.03041558407652167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1889657464251888</v>
+        <v>0.2147209554001824</v>
       </c>
       <c r="C93">
-        <v>-0.3421541229557923</v>
+        <v>-0.322955543289706</v>
       </c>
       <c r="D93">
-        <v>-0.03681415144137264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01686254048344621</v>
+      </c>
+      <c r="E93">
+        <v>-0.03719029532100803</v>
+      </c>
+      <c r="F93">
+        <v>-0.00297014279044331</v>
+      </c>
+      <c r="G93">
+        <v>-0.04086708379267602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3431318588939445</v>
+        <v>0.3448299712710623</v>
       </c>
       <c r="C94">
-        <v>0.1183124322994669</v>
+        <v>0.1684051723505628</v>
       </c>
       <c r="D94">
-        <v>-0.3791459903272101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4049308138724759</v>
+      </c>
+      <c r="E94">
+        <v>0.0009566121439921641</v>
+      </c>
+      <c r="F94">
+        <v>0.1238189331992958</v>
+      </c>
+      <c r="G94">
+        <v>0.395593617247916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1230976185965363</v>
+        <v>0.090583465352347</v>
       </c>
       <c r="C95">
-        <v>0.0524199790575648</v>
+        <v>0.0564398864437403</v>
       </c>
       <c r="D95">
-        <v>0.2116163235663313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1976797829835564</v>
+      </c>
+      <c r="E95">
+        <v>0.1261915172174722</v>
+      </c>
+      <c r="F95">
+        <v>-0.7088042973265041</v>
+      </c>
+      <c r="G95">
+        <v>0.5692565795007802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1935337140508422</v>
+        <v>0.1874745636931645</v>
       </c>
       <c r="C98">
-        <v>0.03036804621941617</v>
+        <v>0.04899091760075216</v>
       </c>
       <c r="D98">
-        <v>0.1644546476227822</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2029048855674938</v>
+      </c>
+      <c r="E98">
+        <v>0.1424538803029674</v>
+      </c>
+      <c r="F98">
+        <v>0.08336729041753892</v>
+      </c>
+      <c r="G98">
+        <v>-0.07539871350615704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007921088317315417</v>
+        <v>0.006705102512572339</v>
       </c>
       <c r="C101">
-        <v>0.03314211154711175</v>
+        <v>0.02825541602351618</v>
       </c>
       <c r="D101">
-        <v>-0.01419543641508112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01743274464758374</v>
+      </c>
+      <c r="E101">
+        <v>-0.05234285547824633</v>
+      </c>
+      <c r="F101">
+        <v>-0.07231626734589995</v>
+      </c>
+      <c r="G101">
+        <v>-0.08580161058956662</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1224176463007387</v>
+        <v>0.1260196164854374</v>
       </c>
       <c r="C102">
-        <v>0.06613173826452826</v>
+        <v>0.09761720752478664</v>
       </c>
       <c r="D102">
-        <v>-0.0515271070826815</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06066380094596735</v>
+      </c>
+      <c r="E102">
+        <v>0.01198015762063784</v>
+      </c>
+      <c r="F102">
+        <v>-0.02058962331279999</v>
+      </c>
+      <c r="G102">
+        <v>0.01110314756565191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
